--- a/games_collections/playstation/SQL Output/Dates and Finances/Presents & Subscriptions/finances_and_dates_presents_subscriptions.xlsx
+++ b/games_collections/playstation/SQL Output/Dates and Finances/Presents & Subscriptions/finances_and_dates_presents_subscriptions.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2024-03-24" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2024-04-04" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-03-24'!$A$1:$G$160</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-04-04'!$A$1:$G$162</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>Sifu</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Skul: The Hero Slayer</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="[$€]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -559,6 +565,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -581,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -596,6 +606,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -4513,52 +4532,100 @@
         <v>39.99</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>940.0</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="6">
+        <v>45385.0</v>
+      </c>
+      <c r="E161" s="7">
+        <v>39.99</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G161" s="7">
+        <f t="shared" ref="G161:G162" si="1">E161-F161</f>
+        <v>39.99</v>
+      </c>
+    </row>
     <row r="162">
-      <c r="E162" s="5">
-        <f t="shared" ref="E162:G162" si="1">SUM(E2:E160)</f>
-        <v>4883.12</v>
-      </c>
-      <c r="F162" s="5">
+      <c r="A162" s="2">
+        <v>941.0</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="6">
+        <v>45385.0</v>
+      </c>
+      <c r="E162" s="7">
+        <v>16.99</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G162" s="7">
         <f t="shared" si="1"/>
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" s="8">
+        <f t="shared" ref="E164:G164" si="2">SUM(E2:E162)</f>
+        <v>4940.1</v>
+      </c>
+      <c r="F164" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G162" s="5">
-        <f t="shared" si="1"/>
-        <v>4883.12</v>
-      </c>
-      <c r="H162" s="6">
-        <f t="shared" ref="H162:H163" si="2">E162-F162</f>
-        <v>4883.12</v>
-      </c>
-      <c r="I162" s="7">
-        <f>COUNTA(B2:B160)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="E163" s="5">
-        <f>E162/I162</f>
-        <v>30.71144654</v>
-      </c>
-      <c r="F163" s="5">
-        <f>F162/I162</f>
+      <c r="G164" s="8">
+        <f t="shared" si="2"/>
+        <v>4940.1</v>
+      </c>
+      <c r="H164" s="9">
+        <f t="shared" ref="H164:H165" si="3">E164-F164</f>
+        <v>4940.1</v>
+      </c>
+      <c r="I164" s="10">
+        <f>COUNTA(B2:B162)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" s="8">
+        <f>E164/I164</f>
+        <v>30.68385093</v>
+      </c>
+      <c r="F165" s="8">
+        <f>F164/I164</f>
         <v>0</v>
       </c>
-      <c r="G163" s="5">
-        <f>G162/I162</f>
-        <v>30.71144654</v>
-      </c>
-      <c r="H163" s="6">
-        <f t="shared" si="2"/>
-        <v>30.71144654</v>
-      </c>
-      <c r="I163" s="7">
-        <f>I162/I162</f>
+      <c r="G165" s="8">
+        <f>G164/I164</f>
+        <v>30.68385093</v>
+      </c>
+      <c r="H165" s="9">
+        <f t="shared" si="3"/>
+        <v>30.68385093</v>
+      </c>
+      <c r="I165" s="10">
+        <f>I164/I164</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$160"/>
+  <autoFilter ref="$A$1:$G$162"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>